--- a/model_log.xlsx
+++ b/model_log.xlsx
@@ -20,6 +20,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Monaco"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -173,10 +181,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +209,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -209,16 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,32 +307,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,30 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -301,56 +345,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Monaco"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF660E7A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -374,25 +372,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,55 +510,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,91 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +655,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -668,6 +684,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,8 +717,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,186 +737,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -935,49 +930,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -1302,16 +1270,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:O34"/>
+  <dimension ref="C2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="21.609375" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="16" max="17" width="12.6875"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:9">
@@ -1334,15 +1303,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
@@ -1357,15 +1326,15 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="5:15">
       <c r="E7" s="6" t="s">
@@ -1380,29 +1349,29 @@
       <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:17">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -1421,29 +1390,37 @@
       <c r="H8" s="7">
         <v>0.511</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>0.513</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="6">
         <v>100</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="15">
         <v>0.53</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="15">
         <v>0.5</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="15">
         <v>0.5</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="14">
         <v>0.495</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="19">
         <v>0.493</v>
       </c>
-    </row>
-    <row r="9" spans="3:15">
+      <c r="P8">
+        <f>N8/H8</f>
+        <v>0.968688845401174</v>
+      </c>
+      <c r="Q8">
+        <f>O8/I8</f>
+        <v>0.961013645224172</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -1462,304 +1439,312 @@
       <c r="H9" s="7">
         <v>0.531</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="14">
         <v>0.531</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="6">
         <v>267</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="15">
         <v>0.6</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="15">
         <v>0.52</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="15">
         <v>0.52</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="14">
         <v>0.513</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="19">
         <v>0.513</v>
+      </c>
+      <c r="P9">
+        <f>N9/H9</f>
+        <v>0.966101694915254</v>
+      </c>
+      <c r="Q9">
+        <f>O9/I9</f>
+        <v>0.966101694915254</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" s="6"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" s="6"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" s="6"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" s="6"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" s="6"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="19"/>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" s="6"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" s="6"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" s="6"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="19"/>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" s="6"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" s="6"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" s="6"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="19"/>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" s="6"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" s="6"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="5:15">
       <c r="E28" s="6"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="5:15">
       <c r="E29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="5:15">
       <c r="E30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="28"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="5:15">
       <c r="E31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="5:15">
       <c r="E32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="19"/>
     </row>
     <row r="33" spans="5:15">
       <c r="E33" s="6"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="5:15">
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="30"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/model_log.xlsx
+++ b/model_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>0.529; 0.498; 0.497</t>
   </si>
@@ -173,6 +173,13 @@
   <si>
     <t>0503_lgbmranker_v2</t>
   </si>
+  <si>
+    <t>0503_lgbmranker_v2_sparse_features</t>
+  </si>
+  <si>
+    <t>1. negative value in sparse features
+2. null value not fixed</t>
+  </si>
 </sst>
 </file>
 
@@ -180,8 +187,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -209,6 +216,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -217,8 +232,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,96 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -330,9 +324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +333,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,181 +379,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,11 +662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,7 +681,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,6 +697,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,172 +744,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +957,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1270,15 +1280,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:Q34"/>
+  <dimension ref="C2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="21.609375" customWidth="1"/>
+    <col min="3" max="3" width="30.984375" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="16" max="17" width="12.6875"/>
   </cols>
@@ -1469,16 +1479,30 @@
         <v>0.966101694915254</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" ht="112" spans="3:18">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="J10" s="6">
+        <v>147</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.687</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0.494</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.5</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="19"/>
+      <c r="R10" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" s="6"/>

--- a/model_log.xlsx
+++ b/model_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13640"/>
+    <workbookView windowWidth="28060" windowHeight="11440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>0.529; 0.498; 0.497</t>
   </si>
@@ -180,16 +180,22 @@
     <t>1. negative value in sparse features
 2. null value not fixed</t>
   </si>
+  <si>
+    <t>0828_ridge_v1</t>
+  </si>
+  <si>
+    <t>0828_ridge_v2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -224,6 +230,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -232,121 +351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,25 +379,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,13 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,139 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,32 +653,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,7 +666,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,11 +686,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +727,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -749,142 +755,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,7 +1289,7 @@
   <dimension ref="C2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1504,25 +1510,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="3:15">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="14"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="K11" s="15">
+        <v>0.463</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0.464</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0.463</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="3:15">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="14"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="K12" s="15">
+        <v>0.453</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.455</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0.456</v>
+      </c>
       <c r="N12" s="14"/>
       <c r="O12" s="19"/>
     </row>

--- a/model_log.xlsx
+++ b/model_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11440"/>
+    <workbookView windowWidth="28060" windowHeight="13640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>0.529; 0.498; 0.497</t>
   </si>
@@ -168,23 +168,34 @@
     <t>epoch</t>
   </si>
   <si>
+    <t>0429_RandomRec</t>
+  </si>
+  <si>
+    <t>0429_xgb</t>
+  </si>
+  <si>
     <t>0503_lgbmranker_v1</t>
   </si>
   <si>
     <t>0503_lgbmranker_v2</t>
   </si>
   <si>
-    <t>0503_lgbmranker_v2_sparse_features</t>
-  </si>
-  <si>
-    <t>1. negative value in sparse features
-2. null value not fixed</t>
-  </si>
-  <si>
     <t>0828_ridge_v1</t>
   </si>
   <si>
     <t>0828_ridge_v2</t>
+  </si>
+  <si>
+    <t>0828_ridge_v3</t>
+  </si>
+  <si>
+    <t>0.35; 0.351; 0.351</t>
+  </si>
+  <si>
+    <t>0828_ridge_v4</t>
+  </si>
+  <si>
+    <t>0.355; 0.355; 0.358</t>
   </si>
 </sst>
 </file>
@@ -197,10 +208,17 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF008ABC"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,6 +237,13 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,156 +780,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -913,10 +941,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -940,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -949,6 +977,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -963,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1286,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:R34"/>
+  <dimension ref="C2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1305,7 +1333,7 @@
       </c>
     </row>
     <row r="3" ht="18" spans="6:11">
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
@@ -1313,21 +1341,21 @@
       </c>
     </row>
     <row r="5" spans="5:15">
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
@@ -1336,24 +1364,24 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="13" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="18"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="5:15">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
@@ -1362,437 +1390,463 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:15">
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>750</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.53</v>
-      </c>
-      <c r="F8">
-        <v>0.51</v>
-      </c>
-      <c r="G8">
-        <v>0.51</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.511</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0.513</v>
-      </c>
-      <c r="J8" s="6">
-        <v>100</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0.53</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0.495</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0.493</v>
-      </c>
-      <c r="P8">
-        <f>N8/H8</f>
-        <v>0.968688845401174</v>
-      </c>
-      <c r="Q8">
-        <f>O8/I8</f>
-        <v>0.961013645224172</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17">
-      <c r="C9" t="s">
+      <c r="E8" s="7"/>
+      <c r="H8" s="8">
+        <v>0.349</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>969</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.56</v>
-      </c>
-      <c r="F9">
-        <v>0.53</v>
-      </c>
-      <c r="G9">
-        <v>0.53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.531</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0.531</v>
-      </c>
-      <c r="J9" s="6">
-        <v>267</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0.52</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0.52</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.513</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0.513</v>
-      </c>
-      <c r="P9">
-        <f>N9/H9</f>
-        <v>0.966101694915254</v>
-      </c>
-      <c r="Q9">
-        <f>O9/I9</f>
-        <v>0.966101694915254</v>
-      </c>
-    </row>
-    <row r="10" ht="112" spans="3:18">
+      <c r="E9" s="7"/>
+      <c r="H9" s="8">
+        <v>0.487</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.489</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="6">
-        <v>147</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.687</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0.494</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="D10">
+        <v>750</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F10">
+        <v>0.51</v>
+      </c>
+      <c r="G10">
+        <v>0.51</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.511</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.513</v>
+      </c>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="L10" s="16">
         <v>0.5</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="19"/>
-      <c r="R10" s="21" t="s">
+      <c r="M10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0.495</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0.493</v>
+      </c>
+      <c r="P10">
+        <f>N10/H10</f>
+        <v>0.968688845401174</v>
+      </c>
+      <c r="Q10">
+        <f>O10/I10</f>
+        <v>0.961013645224172</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="3:15">
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="15">
-        <v>0.463</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0.464</v>
-      </c>
-      <c r="M11" s="15">
-        <v>0.463</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="19"/>
+      <c r="D11">
+        <v>969</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.56</v>
+      </c>
+      <c r="F11">
+        <v>0.53</v>
+      </c>
+      <c r="G11">
+        <v>0.53</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.531</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.531</v>
+      </c>
+      <c r="J11" s="7">
+        <v>267</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.513</v>
+      </c>
+      <c r="O11" s="21">
+        <v>0.513</v>
+      </c>
+      <c r="P11">
+        <f>N11/H11</f>
+        <v>0.966101694915254</v>
+      </c>
+      <c r="Q11">
+        <f>O11/I11</f>
+        <v>0.966101694915254</v>
+      </c>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="16">
+        <v>0.463</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.464</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.463</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0.458</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="15">
+      <c r="E13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="16">
         <v>0.453</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L13" s="16">
         <v>0.455</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M13" s="16">
         <v>0.456</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="19"/>
+      <c r="N13" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17">
+        <v>0.349</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="21">
+        <v>0.352</v>
+      </c>
+      <c r="O15" s="21">
+        <v>0.352</v>
+      </c>
     </row>
     <row r="16" spans="5:15">
-      <c r="E16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="19"/>
+      <c r="E16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="5:15">
-      <c r="E17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="19"/>
+      <c r="E17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="19"/>
+      <c r="E18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="19"/>
+      <c r="E19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="5:15">
-      <c r="E20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="19"/>
+      <c r="E20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="5:15">
-      <c r="E21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="19"/>
+      <c r="E21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="5:15">
-      <c r="E22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="19"/>
+      <c r="E22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="19"/>
+      <c r="E23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="21"/>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="19"/>
+      <c r="E24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="5:15">
-      <c r="E25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="19"/>
+      <c r="E25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="5:15">
-      <c r="E26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="19"/>
+      <c r="E26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="21"/>
     </row>
     <row r="27" spans="5:15">
-      <c r="E27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="19"/>
+      <c r="E27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="21"/>
     </row>
     <row r="28" spans="5:15">
-      <c r="E28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="19"/>
+      <c r="E28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="21"/>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="19"/>
+      <c r="E29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" spans="5:15">
-      <c r="E30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="19"/>
+      <c r="E30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="21"/>
     </row>
     <row r="31" spans="5:15">
-      <c r="E31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="19"/>
+      <c r="E31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="5:15">
-      <c r="E32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="19"/>
+      <c r="E32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="5:15">
-      <c r="E33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="19"/>
+      <c r="E33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="21"/>
     </row>
     <row r="34" spans="5:15">
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="20"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1803,6 +1857,7 @@
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="NDCG@38" tooltip="mailto:NDCG@38"/>
     <hyperlink ref="K6" r:id="rId1" display="NDCG@38" tooltip="mailto:NDCG@38"/>
+    <hyperlink ref="C9" r:id="rId2" display="0429_xgb" tooltip="https://www.kaggle.com/submissions/26320922/26320922.raw"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/model_log.xlsx
+++ b/model_log.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>0.529; 0.498; 0.497</t>
+  </si>
+  <si>
+    <t>Red font: milestone submission</t>
   </si>
   <si>
     <r>
@@ -203,12 +206,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +220,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
-      <color rgb="FF008ABC"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,6 +272,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -271,6 +305,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +341,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -292,6 +363,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,76 +386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,25 +414,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,145 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +688,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -687,11 +712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,16 +743,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,36 +768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -775,164 +776,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -941,10 +957,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -953,6 +969,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -968,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -977,7 +999,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -990,6 +1015,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -1317,7 +1348,7 @@
   <dimension ref="C2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1332,521 +1363,524 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="6:11">
-      <c r="F3" s="2" t="s">
+    <row r="3" ht="18" spans="3:11">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="K3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="5:15">
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="20"/>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="5:15">
-      <c r="E7" s="7" t="s">
-        <v>8</v>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="M7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="N7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="O7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="H8" s="8">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:15">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="H8" s="12">
         <v>0.349</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="21">
         <v>0.35</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="3:15">
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="H9" s="8">
+      <c r="J8" s="11"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:15">
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="H9" s="12">
         <v>0.487</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="3">
         <v>0.489</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="3:17">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
+      <c r="J9" s="11"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:17">
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
         <v>750</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>0.53</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.51</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.51</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="12">
         <v>0.511</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="21">
         <v>0.513</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="11">
         <v>100</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="22">
         <v>0.53</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="22">
         <v>0.5</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="22">
         <v>0.5</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="21">
         <v>0.495</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="27">
         <v>0.493</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <f>N10/H10</f>
         <v>0.968688845401174</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <f>O10/I10</f>
         <v>0.961013645224172</v>
       </c>
     </row>
-    <row r="11" spans="3:17">
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
+    <row r="11" s="1" customFormat="1" spans="3:17">
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
         <v>969</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="11">
         <v>0.56</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.53</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.53</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="12">
         <v>0.531</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="21">
         <v>0.531</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="11">
         <v>267</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="22">
         <v>0.6</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="22">
         <v>0.52</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="22">
         <v>0.52</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="21">
         <v>0.513</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="27">
         <v>0.513</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <f>N11/H11</f>
         <v>0.966101694915254</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <f>O11/I11</f>
         <v>0.966101694915254</v>
       </c>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="16">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="20">
         <v>0.463</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="20">
         <v>0.464</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="20">
         <v>0.463</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="19">
         <v>0.458</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="28">
         <v>0.458</v>
       </c>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="16">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="20">
         <v>0.453</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="20">
         <v>0.455</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="20">
         <v>0.456</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="19">
         <v>0.45</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="19">
         <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="3:15">
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17">
+      <c r="E14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="28">
         <v>0.349</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="28">
         <v>0.349</v>
       </c>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="21">
+      <c r="E15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="26">
         <v>0.352</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="26">
         <v>0.352</v>
       </c>
     </row>
     <row r="16" spans="5:15">
-      <c r="E16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="21"/>
+      <c r="E16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="5:15">
-      <c r="E17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="21"/>
+      <c r="E17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="21"/>
+      <c r="E18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="21"/>
+      <c r="E19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20" spans="5:15">
-      <c r="E20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="21"/>
+      <c r="E20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" spans="5:15">
-      <c r="E21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="21"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" spans="5:15">
-      <c r="E22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="21"/>
+      <c r="E22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="21"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="21"/>
+      <c r="E24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="5:15">
-      <c r="E25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="21"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="5:15">
-      <c r="E26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="21"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="5:15">
-      <c r="E27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="21"/>
+      <c r="E27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="5:15">
-      <c r="E28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="21"/>
+      <c r="E28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="21"/>
+      <c r="E29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="5:15">
-      <c r="E30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="21"/>
+      <c r="E30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="5:15">
-      <c r="E31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="21"/>
+      <c r="E31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="5:15">
-      <c r="E32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="21"/>
+      <c r="E32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="5:15">
-      <c r="E33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="21"/>
+      <c r="E33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="5:15">
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="22"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/model_log.xlsx
+++ b/model_log.xlsx
@@ -206,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -280,6 +280,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -288,9 +349,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,36 +380,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,58 +390,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,12 +426,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,7 +486,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,145 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,15 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,6 +714,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,147 +785,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,11 +935,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1348,7 +1345,7 @@
   <dimension ref="C2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1364,10 +1361,10 @@
       </c>
     </row>
     <row r="3" ht="18" spans="3:11">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -1375,21 +1372,21 @@
       </c>
     </row>
     <row r="5" spans="5:15">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" t="s">
@@ -1398,24 +1395,24 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="18" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="25"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="5:15">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -1424,75 +1421,75 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:15">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="H8" s="12">
+      <c r="E8" s="10"/>
+      <c r="H8" s="11">
         <v>0.349</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>0.35</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="27"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:15">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="H9" s="12">
+      <c r="E9" s="10"/>
+      <c r="H9" s="11">
         <v>0.487</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.489</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="27"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="3:17">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>750</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.53</v>
       </c>
       <c r="F10" s="1">
@@ -1501,28 +1498,28 @@
       <c r="G10" s="1">
         <v>0.51</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>0.511</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>0.513</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>100</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>0.53</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="21">
         <v>0.5</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <v>0.5</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <v>0.495</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="26">
         <v>0.493</v>
       </c>
       <c r="P10" s="1">
@@ -1535,13 +1532,13 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="3:17">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>969</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.56</v>
       </c>
       <c r="F11" s="1">
@@ -1550,28 +1547,28 @@
       <c r="G11" s="1">
         <v>0.53</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>0.531</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>0.531</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>267</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>0.6</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <v>0.52</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <v>0.52</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <v>0.513</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="26">
         <v>0.513</v>
       </c>
       <c r="P11" s="1">
@@ -1587,23 +1584,23 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="20">
+      <c r="E12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="19">
         <v>0.463</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>0.464</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>0.463</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <v>0.458</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="27">
         <v>0.458</v>
       </c>
     </row>
@@ -1611,23 +1608,23 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="20">
+      <c r="E13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="19">
         <v>0.453</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>0.455</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>0.456</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <v>0.45</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <v>0.45</v>
       </c>
     </row>
@@ -1635,19 +1632,19 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="20" t="s">
+      <c r="E14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="28">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="27">
         <v>0.349</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="27">
         <v>0.349</v>
       </c>
     </row>
@@ -1655,232 +1652,232 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="20" t="s">
+      <c r="E15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="26">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="25">
         <v>0.352</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="25">
         <v>0.352</v>
       </c>
     </row>
     <row r="16" spans="5:15">
-      <c r="E16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="26"/>
+      <c r="E16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="5:15">
-      <c r="E17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="26"/>
+      <c r="E17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="26"/>
+      <c r="E18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="26"/>
+      <c r="E19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="5:15">
-      <c r="E20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="26"/>
+      <c r="E20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="5:15">
-      <c r="E21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="26"/>
+      <c r="E21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="5:15">
-      <c r="E22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="26"/>
+      <c r="E22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="26"/>
+      <c r="E23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="26"/>
+      <c r="E24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="5:15">
-      <c r="E25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="26"/>
+      <c r="E25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="5:15">
-      <c r="E26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="26"/>
+      <c r="E26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="5:15">
-      <c r="E27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="26"/>
+      <c r="E27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="5:15">
-      <c r="E28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="26"/>
+      <c r="E28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="26"/>
+      <c r="E29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="25"/>
     </row>
     <row r="30" spans="5:15">
-      <c r="E30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="26"/>
+      <c r="E30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="5:15">
-      <c r="E31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="26"/>
+      <c r="E31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="5:15">
-      <c r="E32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="26"/>
+      <c r="E32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="25"/>
     </row>
     <row r="33" spans="5:15">
-      <c r="E33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="26"/>
+      <c r="E33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="25"/>
     </row>
     <row r="34" spans="5:15">
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="29"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/model_log.xlsx
+++ b/model_log.xlsx
@@ -1345,7 +1345,7 @@
   <dimension ref="C2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
